--- a/bulk-upload-templates/en/e-label_excel_import_en.xlsx
+++ b/bulk-upload-templates/en/e-label_excel_import_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxbauer/workspace/vs_code/misc/e-label.io/bulk-upload-templates/en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EDD2A0-7FE1-0F43-8677-66ACC5D6917F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D1FAF9-C672-A44F-8FC7-8247D187982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5600" yWindow="1800" windowWidth="30240" windowHeight="15920" xr2:uid="{42B7CF4C-2976-4744-81A6-4766AD4B0A9A}"/>
   </bookViews>
